--- a/the reservation book.xlsx
+++ b/the reservation book.xlsx
@@ -27,13 +27,13 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -64,21 +64,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -449,7 +458,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,332 +466,1315 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.005" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="15.29071428571429" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="16.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="18.86214285714286" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="17.43357142857143" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
-    <col width="12.43357142857143" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
-    <col width="21.14785714285714" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
-    <col width="12.43357142857143" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
-    <col width="15.86214285714286" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
-    <col width="16.86214285714286" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="12.43357142857143" bestFit="1" customWidth="1" style="5" min="11" max="11"/>
-    <col width="12.43357142857143" bestFit="1" customWidth="1" style="6" min="12" max="12"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="15.29071428571429" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
+    <col width="16.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
+    <col width="18.86214285714286" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
+    <col width="17.43357142857143" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
+    <col width="21.14785714285714" bestFit="1" customWidth="1" style="7" min="7" max="7"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
+    <col width="15.86214285714286" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
+    <col width="16.86214285714286" bestFit="1" customWidth="1" style="7" min="10" max="10"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="9" min="11" max="11"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="8" min="12" max="12"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="9" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Booking ID</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Restaurant ID</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Resturant Name</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Person Name</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>order</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>Desires</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="7" t="inlineStr">
+        <is>
+          <t>Person Number</t>
+        </is>
+      </c>
+      <c r="J1" s="7" t="inlineStr">
         <is>
           <t>Phone number</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="K1" s="9" t="inlineStr">
         <is>
           <t>Number of people</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="L1" s="8" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>total price</t>
         </is>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="inlineStr"/>
-      <c r="E2" s="3" t="inlineStr"/>
-      <c r="F2" s="3" t="inlineStr"/>
-      <c r="G2" s="5" t="n"/>
-      <c r="H2" s="5" t="n"/>
-      <c r="I2" s="3" t="inlineStr"/>
-      <c r="J2" s="3" t="inlineStr"/>
-      <c r="K2" s="3" t="inlineStr"/>
-      <c r="L2" s="2" t="n"/>
+      <c r="A2" s="7" t="n"/>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="7" t="inlineStr">
+        <is>
+          <t>Dabbous</t>
+        </is>
+      </c>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>alketa backa</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>11:22</t>
+        </is>
+      </c>
+      <c r="G2" s="7" t="inlineStr">
+        <is>
+          <t>Smoked eel with green beans, girolles, and dashi, Roasted guinea fowl with butternut squash, kale, and jus - crcrc</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="n"/>
+      <c r="I2" s="7" t="inlineStr">
+        <is>
+          <t>Person 2</t>
+        </is>
+      </c>
+      <c r="J2" s="7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" s="8" t="inlineStr">
+        <is>
+          <t>abb@gmail.com</t>
+        </is>
+      </c>
+      <c r="M2" s="5" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="5" t="n"/>
-      <c r="B3" s="5" t="n"/>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr"/>
-      <c r="F3" s="3" t="inlineStr"/>
-      <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr"/>
-      <c r="I3" s="3" t="inlineStr"/>
-      <c r="J3" s="3" t="inlineStr"/>
-      <c r="K3" s="3" t="inlineStr"/>
-      <c r="L3" s="2" t="n"/>
+      <c r="A3" s="7" t="n"/>
+      <c r="B3" s="7" t="n"/>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>Padella</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>alketa backa</t>
+        </is>
+      </c>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="G3" s="7" t="inlineStr">
+        <is>
+          <t>Garlic bread, Tiramisu</t>
+        </is>
+      </c>
+      <c r="H3" s="7" t="inlineStr">
+        <is>
+          <t>fussy</t>
+        </is>
+      </c>
+      <c r="I3" s="7" t="inlineStr">
+        <is>
+          <t>Person 1</t>
+        </is>
+      </c>
+      <c r="J3" s="7" t="inlineStr">
+        <is>
+          <t>1233</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="8" t="inlineStr">
+        <is>
+          <t>abb@gmail.com</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="C4" t="inlineStr">
+      <c r="A4" s="7" t="n"/>
+      <c r="B4" s="7" t="n"/>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t>Padella</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>alketa backa</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="F4" s="7" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>Garlic bread, Beef carpaccio with rocket and Parmesan</t>
+        </is>
+      </c>
+      <c r="H4" s="7" t="inlineStr">
+        <is>
+          <t>sffsf</t>
+        </is>
+      </c>
+      <c r="I4" s="7" t="inlineStr">
+        <is>
+          <t>Person 2</t>
+        </is>
+      </c>
+      <c r="J4" s="7" t="inlineStr">
+        <is>
+          <t>1233</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" s="8" t="inlineStr">
+        <is>
+          <t>abb@gmail.com</t>
+        </is>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" customHeight="1">
+      <c r="A5" s="7" t="n"/>
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>Mambow</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>alketa backa</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="F5" s="7" t="inlineStr">
+        <is>
+          <t>13:22</t>
+        </is>
+      </c>
+      <c r="G5" s="7" t="inlineStr">
+        <is>
+          <t>Kam Heong Mussels: Wok-fried mussels in a soybean and curry leaf sauce, dusted with prawn floss.</t>
+        </is>
+      </c>
+      <c r="H5" s="7" t="inlineStr">
+        <is>
+          <t>fjdfnfsd</t>
+        </is>
+      </c>
+      <c r="I5" s="7" t="inlineStr">
+        <is>
+          <t>Person 1</t>
+        </is>
+      </c>
+      <c r="J5" s="7" t="inlineStr">
+        <is>
+          <t>323434</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" s="8" t="inlineStr">
+        <is>
+          <t>abb@gmail.com</t>
+        </is>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" customHeight="1">
+      <c r="A6" s="7" t="n"/>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>Mambow</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>alketa backa</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="F6" s="7" t="inlineStr">
+        <is>
+          <t>13:22</t>
+        </is>
+      </c>
+      <c r="G6" s="7" t="inlineStr">
+        <is>
+          <t>Gulai Tumis Tamarind Skate Wing Curry: Skate wing in a tangy tamarind curry., Grilled Banana Blossom Salad: Served with sambal oelek and spiced fried peanuts</t>
+        </is>
+      </c>
+      <c r="H6" s="7" t="inlineStr">
+        <is>
+          <t>rfrffrfr</t>
+        </is>
+      </c>
+      <c r="I6" s="7" t="inlineStr">
+        <is>
+          <t>Person 2</t>
+        </is>
+      </c>
+      <c r="J6" s="7" t="inlineStr">
+        <is>
+          <t>323434</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="8" t="inlineStr">
+        <is>
+          <t>abb@gmail.com</t>
+        </is>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" customHeight="1">
+      <c r="A7" s="7" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>Mambow</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>keta keta</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="F7" s="7" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>Otak-Otak Prawn Toast: Prawn paste on toast wrapped in betel leaves with fragrant kaffir lime., Gulai Tumis Tamarind Skate Wing Curry: Skate wing in a tangy tamarind curry.</t>
+        </is>
+      </c>
+      <c r="H7" s="7" t="inlineStr">
+        <is>
+          <t>ggggg</t>
+        </is>
+      </c>
+      <c r="I7" s="7" t="inlineStr">
+        <is>
+          <t>Person 1</t>
+        </is>
+      </c>
+      <c r="J7" s="7" t="inlineStr">
+        <is>
+          <t>3456</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="8" t="inlineStr">
+        <is>
+          <t>banaalbanaa234@gmail.com</t>
+        </is>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" customHeight="1">
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>Mambow</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>keta keta</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>Grilled Banana Blossom Salad: Served with sambal oelek and spiced fried peanuts, Gulai Tumis Tamarind Skate Wing Curry: Skate wing in a tangy tamarind curry.</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>bhhjjhb</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr">
+        <is>
+          <t>Person 2</t>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr">
+        <is>
+          <t>3456</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" s="8" t="inlineStr">
+        <is>
+          <t>banaalbanaa234@gmail.com</t>
+        </is>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" customHeight="1">
+      <c r="A9" s="7" t="n"/>
+      <c r="B9" s="7" t="n"/>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>Akoko</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>keta keta</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t>Yam Croquette with Squid Ink and Autumn Truffles, Fonio with Smoked Fish and Fermented Kombu</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr">
+        <is>
+          <t>njfknksnd</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr">
+        <is>
+          <t>Person 1</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr">
+        <is>
+          <t>1333</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" s="8" t="inlineStr">
+        <is>
+          <t>banaalbanaa234@gmail.com</t>
+        </is>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" customHeight="1">
+      <c r="A10" s="7" t="n"/>
+      <c r="B10" s="7" t="n"/>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>Akoko</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>keta keta</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr">
+        <is>
+          <t>Yorkshire Wagyu Beef, Beef Tongue</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> nscn fd f</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr">
+        <is>
+          <t>Person 2</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr">
+        <is>
+          <t>1333</t>
+        </is>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" s="8" t="inlineStr">
+        <is>
+          <t>banaalbanaa234@gmail.com</t>
+        </is>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" customHeight="1">
+      <c r="A11" s="7" t="n"/>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>Akoko</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>keta keta</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr">
+        <is>
+          <t>Curated Wine Pairing, Signature Akoko Pairing</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr">
+        <is>
+          <t>nf ksnf</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr">
+        <is>
+          <t>Person 3</t>
+        </is>
+      </c>
+      <c r="J11" s="7" t="inlineStr">
+        <is>
+          <t>1333</t>
+        </is>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" s="8" t="inlineStr">
+        <is>
+          <t>banaalbanaa234@gmail.com</t>
+        </is>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" customHeight="1">
+      <c r="A12" s="7" t="n"/>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="inlineStr">
         <is>
           <t>Dabbous</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>djjd jfjkdf</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2024-07-16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>keta keta</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr">
         <is>
           <t>11:30</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Salt-baked beets with goat's curd and horseradish, Smoked eel with green beans, girolles, and dashi</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="G12" s="7" t="inlineStr">
+        <is>
+          <t>Pear tart with almond frangipane and vanilla ice cream, Buttermilk panna cotta with rhubarb and gingerbread</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr">
+        <is>
+          <t>edfssf</t>
+        </is>
+      </c>
+      <c r="I12" s="7" t="inlineStr">
+        <is>
+          <t>Person 1</t>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" s="8" t="inlineStr">
+        <is>
+          <t>banaalbanaa234@gmail.com</t>
+        </is>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" customHeight="1">
+      <c r="A13" s="7" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t>Dabbous</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="inlineStr">
+        <is>
+          <t>keta keta</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr">
+        <is>
+          <t>Pear tart with almond frangipane and vanilla ice cream</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr">
+        <is>
+          <t>sides</t>
+        </is>
+      </c>
+      <c r="I13" s="7" t="inlineStr">
+        <is>
+          <t>Person 2</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" s="8" t="inlineStr">
+        <is>
+          <t>banaalbanaa234@gmail.com</t>
+        </is>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" customHeight="1">
+      <c r="A14" s="7" t="n"/>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t>Speedboat Bar</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>keta keta</t>
+        </is>
+      </c>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr">
+        <is>
+          <t>Fried Whole Mackerel in Red Curry, Chicken Wing Salad with Green Mango Kerabu</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr">
+        <is>
+          <t>ndjsn</t>
+        </is>
+      </c>
+      <c r="I14" s="7" t="inlineStr">
+        <is>
+          <t>Person 1</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>wee@gmail.com</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" ht="19.5" customHeight="1">
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Dabbous</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>djjd jfjkdf</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2024-07-16</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="K14" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" s="8" t="inlineStr">
+        <is>
+          <t>banaalbanaa234@gmail.com</t>
+        </is>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" customHeight="1">
+      <c r="A15" s="7" t="n"/>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="inlineStr">
+        <is>
+          <t>Speedboat Bar</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>keta keta</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr">
         <is>
           <t>11:30</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>3456</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>wee@gmail.com</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="17.25" customHeight="1">
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Dabbous</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>djjd jfjkdf</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2024-07-16</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="G15" s="7" t="inlineStr">
+        <is>
+          <t>7-11 Pineapple Pie</t>
+        </is>
+      </c>
+      <c r="H15" s="7" t="inlineStr">
+        <is>
+          <t>mdsmfs</t>
+        </is>
+      </c>
+      <c r="I15" s="7" t="inlineStr">
+        <is>
+          <t>Person 2</t>
+        </is>
+      </c>
+      <c r="J15" s="7" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" s="8" t="inlineStr">
+        <is>
+          <t>banaalbanaa234@gmail.com</t>
+        </is>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" customHeight="1">
+      <c r="A16" s="7" t="n"/>
+      <c r="B16" s="7" t="n"/>
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t>Etles Uyghur Restaurant</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr">
+        <is>
+          <t>alketa backa</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="F16" s="7" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr">
+        <is>
+          <t>Samsa (Uyghur Samosa): Flaky pastry filled with seasoned meat., Cold Dishes: Spicy tripe and spicy tongue, offering a unique taste experience with a mix of chili and aromatic spices.</t>
+        </is>
+      </c>
+      <c r="H16" s="7" t="inlineStr">
+        <is>
+          <t>wwerctvg</t>
+        </is>
+      </c>
+      <c r="I16" s="7" t="inlineStr">
+        <is>
+          <t>Person 1</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr">
+        <is>
+          <t>234567</t>
+        </is>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" s="8" t="inlineStr">
+        <is>
+          <t>abb@gmail.com</t>
+        </is>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25" customHeight="1">
+      <c r="A17" s="7" t="n"/>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="inlineStr">
+        <is>
+          <t>Etles Uyghur Restaurant</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="inlineStr">
+        <is>
+          <t>alketa backa</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
+      <c r="G17" s="7" t="inlineStr">
+        <is>
+          <t>Kung Pao Chicken: Stir-fried chicken in a peppery peanut sauce, Big Plate Chicken: A hearty dish featuring chicken, potatoes, and peppers in a savory, spicy sauce.</t>
+        </is>
+      </c>
+      <c r="H17" s="7" t="inlineStr">
+        <is>
+          <t>xethcgfcfggf</t>
+        </is>
+      </c>
+      <c r="I17" s="7" t="inlineStr">
+        <is>
+          <t>Person 2</t>
+        </is>
+      </c>
+      <c r="J17" s="7" t="inlineStr">
+        <is>
+          <t>234567</t>
+        </is>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" s="8" t="inlineStr">
+        <is>
+          <t>abb@gmail.com</t>
+        </is>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25" customHeight="1">
+      <c r="A18" s="7" t="n"/>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="inlineStr">
+        <is>
+          <t>Etles Uyghur Restaurant</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr">
+        <is>
+          <t>alketa backa</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
+      <c r="G18" s="7" t="inlineStr">
+        <is>
+          <t>DingDing Chaomian (Chopped Noodles): Fried noodles with a rich, savory flavor, Tugur Dumplings: Similar to tortellini</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="n"/>
+      <c r="I18" s="7" t="inlineStr">
+        <is>
+          <t>Person 3</t>
+        </is>
+      </c>
+      <c r="J18" s="7" t="inlineStr">
+        <is>
+          <t>234567</t>
+        </is>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" s="8" t="inlineStr">
+        <is>
+          <t>abb@gmail.com</t>
+        </is>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Bouchon Racine</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>alketa backa</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Steak-Frites: Classic steak with French fries and bearnaise sauce., Tête de Veau: Veal head poached and served with a rich sauce ravigote.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>fgcghcfg</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Person 1</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>345678</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>abb@gmail.com</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Bouchon Racine</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>alketa backa</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Tarte Tatin: Caramelized apple tart with crème fraîche., Crème Brûlée: Rich custard topped with a layer of hard caramel.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>gvghv</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Person 2</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>345678</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>abb@gmail.com</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Mambow</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>alketa backa</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2024-08-23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>11:30</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Salt-baked beets with goat's curd and horseradish, Pear tart with almond frangipane and vanilla ice cream, Buttermilk panna cotta with rhubarb and gingerbread</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>wee@gmail.com</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" ht="17.25" customHeight="1">
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Dabbous</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>djjd jfjkdf</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2024-07-16</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Celeriac with hazelnuts, apple, and truffle, Salt-baked beets with goat's curd and horseradish</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>wee@gmail.com</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" ht="17.25" customHeight="1">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>St. JOHN Restaurant</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>djjd jfjkdf</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2024-07-16</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Kam Heong Mussels: Wok-fried mussels in a soybean and curry leaf sauce, dusted with prawn floss., Otak-Otak Prawn Toast: Prawn paste on toast wrapped in betel leaves with fragrant kaffir lime.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Person 1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>5263829</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>abb@gmail.com</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mambow</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>alketa backa</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2024-08-23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>11:30</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Eccles Cake and Lancashire Cheese, Turbot, Monksbeard and Capers, Roast Lamb, Turnips and Aïoli</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>3456</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>wee@gmail.com</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" ht="17.25" customHeight="1"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Gulai Tumis Tamarind Skate Wing Curry: Skate wing in a tangy tamarind curry., Grilled Banana Blossom Salad: Served with sambal oelek and spiced fried peanuts</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Person 2</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>5263829</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>abb@gmail.com</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mambow</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>alketa backa</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Otak-Otak Prawn Toast: Prawn paste on toast wrapped in betel leaves with fragrant kaffir lime.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Person 1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>743781398</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>abb@gmail.com</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Mambow</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>alketa backa</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Grilled Banana Blossom Salad: Served with sambal oelek and spiced fried peanuts</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Person 2</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>743781398</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>abb@gmail.com</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
